--- a/data/bbb_instagram_2023-01-23.xlsx
+++ b/data/bbb_instagram_2023-01-23.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>517</v>
+        <v>517771</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>583</v>
+        <v>583662</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1154</v>
+        <v>1154476</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>214</v>
+        <v>214521</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3565</v>
+        <v>3565299</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>953</v>
+        <v>953586</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10191</v>
+        <v>10191505</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1232</v>
+        <v>1232390</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>198</v>
+        <v>198552</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>309</v>
+        <v>309931</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>407</v>
+        <v>407478</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>166</v>
+        <v>166064</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>511</v>
+        <v>511058</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7656</v>
+        <v>7656395</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1053</v>
+        <v>1053148</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92</v>
+        <v>92682</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>870</v>
+        <v>870969</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>163</v>
+        <v>163201</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2833</v>
+        <v>2833398</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>225</v>
+        <v>225509</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148</v>
+        <v>148249</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8591</v>
+        <v>8591948</v>
       </c>
     </row>
   </sheetData>
